--- a/Input/DIC_Basic/benefits.xlsx
+++ b/Input/DIC_Basic/benefits.xlsx
@@ -313,7 +313,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -346,11 +346,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -395,7 +391,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -424,43 +420,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:BL2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="BC1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="BI6" activeCellId="0" sqref="BI6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="BJ2" activeCellId="0" sqref="BJ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="85.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="13.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="56" min="4" style="0" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="57" style="1" width="13.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="59" style="0" width="13.36"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="63" min="60" style="0" width="11.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="64" min="64" style="2" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="65" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -800,16 +796,16 @@
       <c r="BD2" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="BE2" s="7" t="s">
+      <c r="BE2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="BF2" s="7" t="s">
+      <c r="BF2" s="5" t="s">
         <v>87</v>
       </c>
       <c r="BG2" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="BH2" s="8" t="s">
+      <c r="BH2" s="7" t="s">
         <v>89</v>
       </c>
       <c r="BJ2" s="0" t="s">
